--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07000221638379514</v>
+        <v>0.06670480677062823</v>
       </c>
       <c r="H2" t="n">
-        <v>8.108850086225255</v>
+        <v>3.016451874312913</v>
       </c>
       <c r="I2" t="n">
-        <v>57.78936361257576</v>
+        <v>-336.8347316467106</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06090916501162572</v>
+        <v>0.07330992072963301</v>
       </c>
       <c r="H3" t="n">
-        <v>-10.95811510545067</v>
+        <v>7.170300594181287</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04169242847166211</v>
+        <v>-0.03294016938801222</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.129410525624223</v>
+        <v>26.62521564245726</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04490532102332428</v>
+        <v>-0.03129202290480846</v>
       </c>
       <c r="H5" t="n">
-        <v>65.87463885972599</v>
+        <v>-15.58881843488774</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09278802747178737</v>
+        <v>-0.09396381958128665</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.49813380805538</v>
+        <v>11.38932692166874</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08581626696032114</v>
+        <v>-0.08265759590487787</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.079489925130881</v>
+        <v>9.53645685219526</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3782506976778605</v>
+        <v>-0.3476890560383758</v>
       </c>
       <c r="H8" t="n">
-        <v>3.092403430473293</v>
+        <v>5.237186200789197</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3711484825352291</v>
+        <v>-0.3769940312045026</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.855855572078009</v>
+        <v>3.357345533586839</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03146161245181035</v>
+        <v>0.02876582427721338</v>
       </c>
       <c r="H10" t="n">
-        <v>55.819997432409</v>
+        <v>42.4685613899169</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03934249817819341</v>
+        <v>0.0447836922367937</v>
       </c>
       <c r="H11" t="n">
-        <v>73.35715572272031</v>
+        <v>97.33300803036923</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2206212341682319</v>
+        <v>0.2204289536178456</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5079274999378427</v>
+        <v>-0.5946389650944507</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2314986003339472</v>
+        <v>0.2309679568309875</v>
       </c>
       <c r="H13" t="n">
-        <v>2.793787273610928</v>
+        <v>2.558162283729016</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05207971024386972</v>
+        <v>-0.06376907605958552</v>
       </c>
       <c r="H14" t="n">
-        <v>23.68978316344225</v>
+        <v>-51.45213276741751</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04180345392914137</v>
+        <v>-0.03845660957441992</v>
       </c>
       <c r="H15" t="n">
-        <v>-12.35492687770553</v>
+        <v>19.37191687799868</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.209397111063047</v>
+        <v>0.2157936062243941</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.494207519705534</v>
+        <v>1.514868497466223</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2143789804979991</v>
+        <v>0.2143220118156841</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.797116681611843</v>
+        <v>-2.822947199916408</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07300987846585673</v>
+        <v>0.07517709543238489</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01419075794798234</v>
+        <v>2.953776683646371</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08590496253443664</v>
+        <v>0.0764080057458804</v>
       </c>
       <c r="H19" t="n">
-        <v>14.02605318975419</v>
+        <v>1.42025641196491</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08225647719968203</v>
+        <v>-0.08110467540971961</v>
       </c>
       <c r="H20" t="n">
-        <v>9.701666276652757</v>
+        <v>-8.165561402229599</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08314703015258564</v>
+        <v>-0.08626032590905523</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.952694264817065</v>
+        <v>0.3563701529764416</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06921344260078539</v>
+        <v>0.07397295211361647</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.834481037993737</v>
+        <v>0.6408749974718129</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07621969503099142</v>
+        <v>0.06739025330740724</v>
       </c>
       <c r="H23" t="n">
-        <v>11.54430954718625</v>
+        <v>-1.377206083962102</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06205910215584532</v>
+        <v>0.06403731134768341</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.835134911938949</v>
+        <v>-3.865391778840805</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05978352464514707</v>
+        <v>0.06848276779957174</v>
       </c>
       <c r="H25" t="n">
-        <v>9.133745475626039</v>
+        <v>25.01405688049451</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.113760521895278</v>
+        <v>0.1158078167661229</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.682494803859231</v>
+        <v>-2.967110272928283</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1303499653506273</v>
+        <v>0.1210678613475955</v>
       </c>
       <c r="H27" t="n">
-        <v>14.48248332233482</v>
+        <v>6.330288468543478</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.131712347754512</v>
+        <v>0.1389334232484681</v>
       </c>
       <c r="H28" t="n">
-        <v>1.90244067279855</v>
+        <v>7.489200226186403</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1422725875985567</v>
+        <v>0.1443895941216611</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.68005970182699</v>
+        <v>-4.276585341513358</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09394005342009451</v>
+        <v>0.08428650176641249</v>
       </c>
       <c r="H30" t="n">
-        <v>11.42575519016189</v>
+        <v>-0.02467776273938008</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09197353903891919</v>
+        <v>0.08428650176641249</v>
       </c>
       <c r="H31" t="n">
-        <v>12.59118680711483</v>
+        <v>3.180951443921745</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05460648850793118</v>
+        <v>0.05377260711433124</v>
       </c>
       <c r="H32" t="n">
-        <v>2.336195310437611</v>
+        <v>0.7734460567699114</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05569816993399945</v>
+        <v>0.05644676705635598</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8241041108931318</v>
+        <v>2.179204903091989</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01369334822552122</v>
+        <v>0.02410073199091677</v>
       </c>
       <c r="H34" t="n">
-        <v>-21.10874205975507</v>
+        <v>38.8511438349663</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01369334822552122</v>
+        <v>0.02410073199091677</v>
       </c>
       <c r="H35" t="n">
-        <v>-18.97756993660877</v>
+        <v>42.60207511346352</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02482577566892693</v>
+        <v>-0.02360738497116695</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.52856966361417</v>
+        <v>18.72330649821934</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.03157044905788003</v>
+        <v>-0.02711740583071</v>
       </c>
       <c r="H37" t="n">
-        <v>-5.090896442999595</v>
+        <v>18.4779198589934</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07665289545547073</v>
+        <v>0.08037878804760902</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.081976042471053</v>
+        <v>2.67755767027846</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07246300953581465</v>
+        <v>0.08417697981510645</v>
       </c>
       <c r="H39" t="n">
-        <v>-6.794150744687501</v>
+        <v>8.272992547135868</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06829189978618895</v>
+        <v>0.06190496785613346</v>
       </c>
       <c r="H40" t="n">
-        <v>3.145897330564672</v>
+        <v>-6.500720016109855</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07090971634900788</v>
+        <v>0.07339705216844888</v>
       </c>
       <c r="H41" t="n">
-        <v>9.053552479646024</v>
+        <v>12.87887884232451</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08236896585912463</v>
+        <v>0.08300680658778022</v>
       </c>
       <c r="H42" t="n">
-        <v>5.88455667379125</v>
+        <v>6.704495130924405</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07813186341404146</v>
+        <v>0.07522735866935555</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.535572272060856</v>
+        <v>-6.158753396946476</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07977568398362601</v>
+        <v>0.08417006730378612</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.59986074182109</v>
+        <v>-4.620237324517281</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0859000428702329</v>
+        <v>0.09404507662440652</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.96048777398079</v>
+        <v>4.051149580269861</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004663442290554701</v>
+        <v>-0.002060324764616932</v>
       </c>
       <c r="H46" t="n">
-        <v>-270.4336585138022</v>
+        <v>24.70182635872525</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.001649244697174641</v>
+        <v>-0.009230174638582202</v>
       </c>
       <c r="H47" t="n">
-        <v>3352.224094699623</v>
+        <v>-19220.74199795027</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09599450453317925</v>
+        <v>-0.1070881896171063</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.1151236264372151</v>
+        <v>-11.4281555281762</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09942526855685445</v>
+        <v>-0.09922648753949648</v>
       </c>
       <c r="H49" t="n">
-        <v>-9.263812997100091</v>
+        <v>9.445221926896503</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1660239623280537</v>
+        <v>0.1663052402578979</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.624837084258728</v>
+        <v>-2.459864005318104</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1698404138757726</v>
+        <v>0.1749837019877335</v>
       </c>
       <c r="H51" t="n">
-        <v>0.003265084752105738</v>
+        <v>3.031670354912904</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06218136893314499</v>
+        <v>0.0714218946801269</v>
       </c>
       <c r="H52" t="n">
-        <v>-12.37356604720175</v>
+        <v>0.648249537585643</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06201246320931605</v>
+        <v>0.06649836295586489</v>
       </c>
       <c r="H53" t="n">
-        <v>-3.581754173171107</v>
+        <v>3.393014480306258</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1403158932562203</v>
+        <v>-0.1208743071529234</v>
       </c>
       <c r="H54" t="n">
-        <v>9.790890463317615</v>
+        <v>5.421278313618873</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1242614039673878</v>
+        <v>-0.1208743071529234</v>
       </c>
       <c r="H55" t="n">
-        <v>6.688553519391471</v>
+        <v>-3.780454558428616</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1889899706223696</v>
+        <v>0.1928873954466858</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.5425007747133367</v>
+        <v>1.508550533292732</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.196911859997208</v>
+        <v>0.2044254390504687</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.00368593004347</v>
+        <v>2.773723067853299</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06670480677062823</v>
+        <v>0.06050113553612564</v>
       </c>
       <c r="H2" t="n">
-        <v>3.016451874312913</v>
+        <v>-6.564269967378987</v>
       </c>
       <c r="I2" t="n">
-        <v>-336.8347316467106</v>
+        <v>234.858783163502</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07330992072963301</v>
+        <v>0.06690038981243245</v>
       </c>
       <c r="H3" t="n">
-        <v>7.170300594181287</v>
+        <v>-2.199663910314793</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03294016938801222</v>
+        <v>-0.04246039282127535</v>
       </c>
       <c r="H4" t="n">
-        <v>26.62521564245726</v>
+        <v>5.418756949942876</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03129202290480846</v>
+        <v>-0.04748950756733328</v>
       </c>
       <c r="H5" t="n">
-        <v>-15.58881843488774</v>
+        <v>-75.42030070926516</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09396381958128665</v>
+        <v>-0.09135386261091111</v>
       </c>
       <c r="H6" t="n">
-        <v>11.38932692166874</v>
+        <v>13.85059387400236</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08265759590487787</v>
+        <v>-0.09080042311564955</v>
       </c>
       <c r="H7" t="n">
-        <v>9.53645685219526</v>
+        <v>0.6246442999106124</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3476890560383758</v>
+        <v>-0.3525890225480292</v>
       </c>
       <c r="H8" t="n">
-        <v>5.237186200789197</v>
+        <v>3.901698051500413</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3769940312045026</v>
+        <v>-0.3702800962515169</v>
       </c>
       <c r="H9" t="n">
-        <v>3.357345533586839</v>
+        <v>5.078466936220914</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02876582427721338</v>
+        <v>0.023027781537809</v>
       </c>
       <c r="H10" t="n">
-        <v>42.4685613899169</v>
+        <v>14.04974444941404</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0447836922367937</v>
+        <v>0.04132575723523859</v>
       </c>
       <c r="H11" t="n">
-        <v>97.33300803036923</v>
+        <v>82.09610635146416</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2204289536178456</v>
+        <v>0.2091472484861203</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5946389650944507</v>
+        <v>-5.682273567093071</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2309679568309875</v>
+        <v>0.2221865413592622</v>
       </c>
       <c r="H13" t="n">
-        <v>2.558162283729016</v>
+        <v>-1.34110515313487</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06376907605958552</v>
+        <v>-0.04543361050573584</v>
       </c>
       <c r="H14" t="n">
-        <v>-51.45213276741751</v>
+        <v>-7.905236136528769</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03845660957441992</v>
+        <v>-0.04250579156722527</v>
       </c>
       <c r="H15" t="n">
-        <v>19.37191687799868</v>
+        <v>10.88240659862181</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2157936062243941</v>
+        <v>0.2141281645294101</v>
       </c>
       <c r="H16" t="n">
-        <v>1.514868497466223</v>
+        <v>0.7314018433120064</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2143220118156841</v>
+        <v>0.2233101046686062</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.822947199916408</v>
+        <v>1.252398894219811</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07517709543238489</v>
+        <v>0.07092443944973292</v>
       </c>
       <c r="H18" t="n">
-        <v>2.953776683646371</v>
+        <v>-2.87016466221355</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0764080057458804</v>
+        <v>0.07451198156976507</v>
       </c>
       <c r="H19" t="n">
-        <v>1.42025641196491</v>
+        <v>-1.096433511136096</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08110467540971961</v>
+        <v>-0.08633176218542994</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.165561402229599</v>
+        <v>-15.13668572689611</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08626032590905523</v>
+        <v>-0.08100068224244281</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3563701529764416</v>
+        <v>6.432048410855058</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07397295211361647</v>
+        <v>0.07242671445731859</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6408749974718129</v>
+        <v>-1.462795414989859</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06739025330740724</v>
+        <v>0.07992671430120725</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.377206083962102</v>
+        <v>16.9693759267645</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06403731134768341</v>
+        <v>0.057626753016201</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.865391778840805</v>
+        <v>-13.48910178018588</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06848276779957174</v>
+        <v>0.06178170642914738</v>
       </c>
       <c r="H25" t="n">
-        <v>25.01405688049451</v>
+        <v>12.78139026611806</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1158078167661229</v>
+        <v>0.121033267503713</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.967110272928283</v>
+        <v>1.411183000822045</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1210678613475955</v>
+        <v>0.1188973715738195</v>
       </c>
       <c r="H27" t="n">
-        <v>6.330288468543478</v>
+        <v>4.42401209432874</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1389334232484681</v>
+        <v>0.1377332833838234</v>
       </c>
       <c r="H28" t="n">
-        <v>7.489200226186403</v>
+        <v>6.560683018491059</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1443895941216611</v>
+        <v>0.1371403176440519</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.276585341513358</v>
+        <v>-9.082509912888668</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08428650176641249</v>
+        <v>0.08543442594688301</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.02467776273938008</v>
+        <v>1.33691736152542</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08428650176641249</v>
+        <v>0.09052969906128745</v>
       </c>
       <c r="H31" t="n">
-        <v>3.180951443921745</v>
+        <v>10.8236821711094</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05377260711433124</v>
+        <v>0.06193783485770882</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7734460567699114</v>
+        <v>16.075626510639</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05644676705635598</v>
+        <v>0.0549604277616981</v>
       </c>
       <c r="H33" t="n">
-        <v>2.179204903091989</v>
+        <v>-0.5113471916406609</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02410073199091677</v>
+        <v>0.02006584743019704</v>
       </c>
       <c r="H34" t="n">
-        <v>38.8511438349663</v>
+        <v>15.60503094888758</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02410073199091677</v>
+        <v>0.02390270867019274</v>
       </c>
       <c r="H35" t="n">
-        <v>42.60207511346352</v>
+        <v>41.4303871968165</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02360738497116695</v>
+        <v>-0.0328263422580627</v>
       </c>
       <c r="H36" t="n">
-        <v>18.72330649821934</v>
+        <v>-13.01618378112246</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02711740583071</v>
+        <v>-0.02658728234546655</v>
       </c>
       <c r="H37" t="n">
-        <v>18.4779198589934</v>
+        <v>20.07161099296256</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08037878804760902</v>
+        <v>0.07221305053413475</v>
       </c>
       <c r="H38" t="n">
-        <v>2.67755767027846</v>
+        <v>-7.753527505620146</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08417697981510645</v>
+        <v>0.08122596632794375</v>
       </c>
       <c r="H39" t="n">
-        <v>8.272992547135868</v>
+        <v>4.477239100007272</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06190496785613346</v>
+        <v>0.06937509591700781</v>
       </c>
       <c r="H40" t="n">
-        <v>-6.500720016109855</v>
+        <v>4.781922060409758</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07339705216844888</v>
+        <v>0.06542316741817125</v>
       </c>
       <c r="H41" t="n">
-        <v>12.87887884232451</v>
+        <v>0.6156728410327326</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08300680658778022</v>
+        <v>0.08227662585955502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.704495130924405</v>
+        <v>5.765854443944036</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07522735866935555</v>
+        <v>0.08028959647960074</v>
       </c>
       <c r="H43" t="n">
-        <v>-6.158753396946476</v>
+        <v>0.1560596593310701</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08417006730378612</v>
+        <v>0.08760970002554058</v>
       </c>
       <c r="H44" t="n">
-        <v>-4.620237324517281</v>
+        <v>-0.7225173487485579</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09404507662440652</v>
+        <v>0.08204078934351959</v>
       </c>
       <c r="H45" t="n">
-        <v>4.051149580269861</v>
+        <v>-9.230352613157471</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.002060324764616932</v>
+        <v>-0.0026334519605715</v>
       </c>
       <c r="H46" t="n">
-        <v>24.70182635872525</v>
+        <v>3.755890135147551</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.009230174638582202</v>
+        <v>0.006169239557060623</v>
       </c>
       <c r="H47" t="n">
-        <v>-19220.74199795027</v>
+        <v>13013.54611074034</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1070881896171063</v>
+        <v>-0.100930820338368</v>
       </c>
       <c r="H48" t="n">
-        <v>-11.4281555281762</v>
+        <v>-5.021246380782546</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09922648753949648</v>
+        <v>-0.09985244731980206</v>
       </c>
       <c r="H49" t="n">
-        <v>9.445221926896503</v>
+        <v>8.873966706704435</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1663052402578979</v>
+        <v>0.1681419617720674</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.459864005318104</v>
+        <v>-1.382603505296411</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1749837019877335</v>
+        <v>0.1790360476907009</v>
       </c>
       <c r="H51" t="n">
-        <v>3.031670354912904</v>
+        <v>5.417720837840466</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0714218946801269</v>
+        <v>0.06767991337407062</v>
       </c>
       <c r="H52" t="n">
-        <v>0.648249537585643</v>
+        <v>-4.624977530160136</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06649836295586489</v>
+        <v>0.06544108926422791</v>
       </c>
       <c r="H53" t="n">
-        <v>3.393014480306258</v>
+        <v>1.749143725448403</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1208743071529234</v>
+        <v>-0.1331391071665898</v>
       </c>
       <c r="H54" t="n">
-        <v>5.421278313618873</v>
+        <v>-4.175377372391599</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1208743071529234</v>
+        <v>-0.1261030956867805</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.780454558428616</v>
+        <v>-8.269796120048188</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1928873954466858</v>
+        <v>0.2003245431119891</v>
       </c>
       <c r="H56" t="n">
-        <v>1.508550533292732</v>
+        <v>5.422409590069027</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2044254390504687</v>
+        <v>0.2042393561848149</v>
       </c>
       <c r="H57" t="n">
-        <v>2.773723067853299</v>
+        <v>2.680170968901196</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>